--- a/biology/Zoologie/Chaetodon_lunulatus/Chaetodon_lunulatus.xlsx
+++ b/biology/Zoologie/Chaetodon_lunulatus/Chaetodon_lunulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon lunulatus
 Le Poisson-papillon côtelé du Pacifique (Chaetodon lunulatus) est une espèce de poissons de la famille des Chaetodontidae.
@@ -512,7 +524,9 @@
           <t>Sous-genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon côtelé du Pacifique est un poisson-papillon qui fait partie du sous-genre Corallochaetodon. En 1984, André Maugé et Roland Bauchot ont proposé d'intégrer ce sous-genre dans un nouveau genre, Mesochaetodon, ce qui donnerait comme nom scientifique pour ce poisson Mesochaetodon lunulatus.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : jusqu'à 14 cm.
 Son corps est clair (blanc à jaune) avec des petites bandes longitudinales bleues. Le pédoncule caudal est gris.
@@ -575,7 +591,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson corallien, et qui se nourrit de corail.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon côtelé du Pacifique se rencontre dans l'océan Pacifique, comme son  nom l'indique.
 </t>
@@ -637,7 +657,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut rencontrer ce poisson en aquarium, mais il est difficile à nourrir, du fait de son alimentation très spécialisée.
 </t>
